--- a/medicine/Mort/Terrorisme_en_1973/Terrorisme_en_1973.xlsx
+++ b/medicine/Mort/Terrorisme_en_1973/Terrorisme_en_1973.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de l'année 1973, les tensions en Irlande du Nord font deux cent soixante-trois morts, dont cent trente-trois civils[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'année 1973, les tensions en Irlande du Nord font deux cent soixante-trois morts, dont cent trente-trois civils.
 </t>
         </is>
       </c>
@@ -513,24 +525,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-17 mai, Italie : une grenade explose lors d'une cérémonie officielle à la préfecture de police de Milan. Le bilan est de quatre morts et cinquante-deux blessés[réf. souhaitée].
-Juin
-12 juin, Irlande du Nord : l'explosion d'une voiture piégée de l'IRA fait six morts et trente-trois blessés à Coleraine[1].
-Juillet
-Août
-Septembre
-1er septembre, Union soviétique : attentat-suicide à l'intérieur du mausolée de Lénine[réf. souhaitée].
-Octobre
-Novembre
-Décembre
-14 décembre, France : un attentat devant le consulat algérien à Marseille, organisé par le groupe Charles-Martel, fait quatre morts et vingt blessés[2],[3].
-17 décembre, Italie : cinq terroristes palestiniens attaquent un avion de la Pan Am à l'aéroport de Rome, faisant trente morts[4].
-20 décembre, Espagne : un attentat d'ETA à Madrid fait trois morts, parmi lesquels le premier ministre espagnol Luis Carrero Blanco dont la voiture est catapultée par-dessus le toit d'un immeuble[4],[5],[6].</t>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 mai, Italie : une grenade explose lors d'une cérémonie officielle à la préfecture de police de Milan. Le bilan est de quatre morts et cinquante-deux blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 juin, Irlande du Nord : l'explosion d'une voiture piégée de l'IRA fait six morts et trente-trois blessés à Coleraine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er septembre, Union soviétique : attentat-suicide à l'intérieur du mausolée de Lénine[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1973</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 décembre, France : un attentat devant le consulat algérien à Marseille, organisé par le groupe Charles-Martel, fait quatre morts et vingt blessés,.
+17 décembre, Italie : cinq terroristes palestiniens attaquent un avion de la Pan Am à l'aéroport de Rome, faisant trente morts.
+20 décembre, Espagne : un attentat d'ETA à Madrid fait trois morts, parmi lesquels le premier ministre espagnol Luis Carrero Blanco dont la voiture est catapultée par-dessus le toit d'un immeuble.</t>
         </is>
       </c>
     </row>
